--- a/Statistics/S7_L42/3.11.Population-variance-unknown-t-score-exercise.xlsx
+++ b/Statistics/S7_L42/3.11.Population-variance-unknown-t-score-exercise.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics Course\Filming\Final excel\Section 3 - Inferential\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data_Analyst_Learning\Data-Analyst-Course\Statistics\S7_L42\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8159CC8B-31A3-4DBB-A463-835B1D7F31CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salaries" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Confidence intervals, t-score</t>
   </si>
@@ -61,15 +62,35 @@
   </si>
   <si>
     <t>Determine which statistic to use for inference</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>standard DEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard ERR </t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degree of freedom </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -155,7 +176,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
@@ -166,17 +187,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -492,31 +513,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -524,7 +547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -532,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -540,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -548,7 +571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -556,194 +579,116 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="2:12" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" ht="12" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="12">
         <v>78000</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="8"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>90000</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8">
+        <f xml:space="preserve"> AVERAGE(B10:B18)</f>
+        <v>92533.333333333328</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>75000</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8">
+        <f xml:space="preserve"> _xlfn.STDEV.S(B10:B18)</f>
+        <v>13931.887883556916</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>117000</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <f>E12/SQRT(COUNT(B10:B18))</f>
+        <v>4643.9626278523056</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>105000</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>96000</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>89500</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H16" s="11">
+        <f>E11-E13*E15</f>
+        <v>76929.618903749579</v>
+      </c>
+      <c r="I16" s="13">
+        <f>E11+E13*E15</f>
+        <v>108137.04776291708</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>102300</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
         <v>80000</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="2:12" ht="12" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
